--- a/Map/data/Sentiment-19_State_Data.xlsx
+++ b/Map/data/Sentiment-19_State_Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>State</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t># of Tweets Analyzed</t>
+  </si>
+  <si>
+    <t>Dominant Emotion</t>
   </si>
   <si>
     <t>Alabama</t>
@@ -240,18 +243,23 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -267,10 +275,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,6 +509,7 @@
   <cols>
     <col customWidth="1" min="7" max="7" width="9.0"/>
     <col customWidth="1" min="8" max="8" width="18.88"/>
+    <col customWidth="1" min="9" max="9" width="15.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -521,10 +537,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>14.5</v>
@@ -541,257 +560,514 @@
       <c r="F2" s="3">
         <v>31.7</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
+        <f t="shared" ref="G2:G27" si="1">sum(B2:F2)</f>
         <v>99.9</v>
       </c>
       <c r="H2" s="4">
         <f>1919+517+136</f>
         <v>2572</v>
       </c>
+      <c r="I2" s="5" t="str">
+        <f t="shared" ref="I2:I47" si="2">INDEX($B$1:$F$1,0,MATCH(MAX($B2:$F2),$B2:$F2,0))</f>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20.1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>35.6</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="H3" s="4">
         <f>755+132+194</f>
         <v>1081</v>
       </c>
+      <c r="I3" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>26.3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>36.6</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="H4" s="4">
         <f>7159+1992+704</f>
         <v>9855</v>
       </c>
+      <c r="I4" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10.2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>22.1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44.1</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>99.8</v>
+      </c>
       <c r="H5" s="4">
         <f>2780+625+106</f>
         <v>3511</v>
       </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>43.4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>17.8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="H6" s="4">
         <f>59370+12000+4420</f>
         <v>75790</v>
       </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Surprise</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>18.8</v>
+      </c>
+      <c r="F7" s="3">
+        <v>49.2</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="H7" s="4">
         <f>4281+1146+443</f>
         <v>5870</v>
       </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>42.2</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>99.9</v>
+      </c>
       <c r="H8" s="4">
         <f>1325+356+91</f>
         <v>1772</v>
       </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>18.1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="D9" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>37.3</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>100.2</v>
+      </c>
       <c r="H9" s="4">
         <f>309+96+325</f>
         <v>730</v>
       </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>39.9</v>
+      </c>
+      <c r="F10" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="H10" s="4">
         <f>825+118+123</f>
         <v>1066</v>
       </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Sad</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>26.8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>28.7999999999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>31.2</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>99.3</v>
+      </c>
       <c r="H11" s="4">
         <f>8308+1962+944</f>
         <v>11214</v>
       </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>24.7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>33.9</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>99.8</v>
+      </c>
       <c r="H12" s="4">
         <f>3456+1327+505</f>
         <v>5288</v>
       </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4.1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="E13" s="3">
+        <v>29.2999999999999</v>
+      </c>
+      <c r="F13" s="3">
+        <v>32.1</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>99.8</v>
+      </c>
       <c r="H13" s="4">
         <f>941+214+69</f>
         <v>1224</v>
       </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H14" s="4">
         <f>11155+2168+1608</f>
         <v>14931</v>
       </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>23.5999999999999</v>
+      </c>
+      <c r="F15" s="3">
+        <v>37.2</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="H15" s="4">
         <f>5120+1148+267</f>
         <v>6535</v>
       </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H16" s="4">
         <f>1265+269+107</f>
         <v>1641</v>
       </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B17" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>20.1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>23.7</v>
+      </c>
+      <c r="F17" s="3">
+        <v>34.6999999999999</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="H17" s="4">
         <f>892+144+48</f>
         <v>1084</v>
       </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B18" s="3">
+        <v>17.4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="E18" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="F18" s="3">
+        <v>36.7</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="H18" s="4">
         <f>2437+706+188</f>
         <v>3331</v>
       </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3">
         <v>14.8</v>
@@ -809,17 +1085,21 @@
         <v>36.8</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" ref="G19:G21" si="1">sum(B19:F19)</f>
+        <f t="shared" si="1"/>
         <v>99.9</v>
       </c>
       <c r="H19" s="4">
         <f>3332+736+171</f>
         <v>4239</v>
       </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3">
         <v>9.8</v>
@@ -844,10 +1124,14 @@
         <f>548+186+119</f>
         <v>853</v>
       </c>
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="3">
         <v>16.3</v>
@@ -872,84 +1156,173 @@
         <f>4965+972+624</f>
         <v>6561</v>
       </c>
+      <c r="I21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="B22" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>7.39999999999999</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>75.0</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
+        <v>100.1</v>
+      </c>
       <c r="H22" s="4">
         <f>8569+1946+1191</f>
         <v>11706</v>
       </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="B23" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D23" s="3">
+        <v>24.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="F23" s="3">
+        <v>40.8</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="H23" s="4">
         <f>3989+908+387</f>
         <v>5284</v>
       </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="B24" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>17.7</v>
+      </c>
+      <c r="E24" s="3">
+        <v>28.7</v>
+      </c>
+      <c r="F24" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
+        <v>99.6</v>
+      </c>
       <c r="H24" s="4">
         <f>5186+1394+465</f>
         <v>7045</v>
       </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="B25" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>22.1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>41.0999999999999</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="H25" s="3">
         <v>831.0</v>
       </c>
+      <c r="I25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="B26" s="3">
+        <v>11.8999999999999</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>24.9</v>
+      </c>
+      <c r="F26" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="1"/>
+        <v>99.9</v>
+      </c>
       <c r="H26" s="4">
         <f>3050+701+259</f>
         <v>4010</v>
       </c>
+      <c r="I26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3">
         <v>25.7</v>
@@ -967,16 +1340,20 @@
         <v>35.1</v>
       </c>
       <c r="G27" s="4">
-        <f>sum(B27:F27)</f>
+        <f t="shared" si="1"/>
         <v>99.7</v>
       </c>
       <c r="H27" s="3">
         <v>147.0</v>
       </c>
+      <c r="I27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3">
         <v>14.2</v>
@@ -994,16 +1371,20 @@
         <v>37.1</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" ref="G28:G37" si="2"> sum(B28:F28)</f>
+        <f t="shared" ref="G28:G51" si="3"> sum(B28:F28)</f>
         <v>99.9</v>
       </c>
       <c r="H28" s="3">
         <v>2147.0</v>
       </c>
+      <c r="I28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3">
         <v>9.9</v>
@@ -1021,17 +1402,21 @@
         <v>40.5</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="H29" s="3">
         <f>6969+2005+696</f>
         <v>9670</v>
       </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="3">
         <v>11.2</v>
@@ -1049,16 +1434,20 @@
         <v>43.0</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99.9</v>
       </c>
       <c r="H30" s="3">
         <v>557.0</v>
       </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3">
         <v>13.4</v>
@@ -1076,17 +1465,21 @@
         <v>36.3</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99.8</v>
       </c>
       <c r="H31" s="4">
         <f>17922+7483+4508</f>
         <v>29913</v>
       </c>
+      <c r="I31" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="3">
         <v>11.9</v>
@@ -1104,34 +1497,52 @@
         <v>36.8</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>2090.0</v>
       </c>
+      <c r="I32" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B33" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4.1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>20.1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>26.1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>35.6</v>
+      </c>
       <c r="G33" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="H33" s="4">
         <f>46893+9576+4705</f>
         <v>61174</v>
       </c>
+      <c r="I33" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3">
         <v>11.3</v>
@@ -1149,17 +1560,21 @@
         <v>36.5</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99.9</v>
       </c>
       <c r="H34" s="4">
         <f>4597+889+195</f>
         <v>5681</v>
       </c>
+      <c r="I34" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3">
         <v>12.9</v>
@@ -1177,16 +1592,20 @@
         <v>38.1</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99.8</v>
       </c>
       <c r="H35" s="3">
         <v>546.0</v>
       </c>
+      <c r="I35" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3">
         <v>12.4</v>
@@ -1204,17 +1623,21 @@
         <v>40.1</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99.8</v>
       </c>
       <c r="H36" s="4">
         <f>4347+954+290</f>
         <v>5591</v>
       </c>
+      <c r="I36" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3">
         <v>11.8999999999999</v>
@@ -1232,222 +1655,444 @@
         <v>31.5</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99.7</v>
       </c>
       <c r="H37" s="4">
         <f>2150+398+114</f>
         <v>2662</v>
       </c>
+      <c r="I37" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Sad</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="H38" s="4">
         <f>5345+1844+621</f>
         <v>7810</v>
       </c>
+      <c r="I38" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>19.1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>11.8999999999999</v>
+      </c>
+      <c r="E39" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>49.7</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="3"/>
+        <v>99.9</v>
+      </c>
       <c r="H39" s="4">
         <f>9243+2258+789</f>
         <v>12290</v>
       </c>
+      <c r="I39" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B40" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="D40" s="3">
+        <v>18.4</v>
+      </c>
+      <c r="E40" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>40.4</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="3"/>
+        <v>99.9</v>
+      </c>
       <c r="H40" s="4">
         <f>1733+544+214</f>
         <v>2491</v>
       </c>
+      <c r="I40" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="B41" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3.69999999999999</v>
+      </c>
+      <c r="D41" s="3">
+        <v>27.8</v>
+      </c>
+      <c r="E41" s="3">
+        <v>19.1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>37.7</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="3"/>
+        <v>99.9</v>
+      </c>
       <c r="H41" s="4">
         <f>635+100+70</f>
         <v>805</v>
       </c>
+      <c r="I41" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="B42" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="D42" s="3">
+        <v>22.9</v>
+      </c>
+      <c r="E42" s="3">
+        <v>21.3</v>
+      </c>
+      <c r="F42" s="3">
+        <v>36.1</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="3"/>
+        <v>99.9</v>
+      </c>
       <c r="H42" s="4">
         <f>415+106+42</f>
         <v>563</v>
       </c>
+      <c r="I42" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B43" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="C43" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>22.2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>22.1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="3"/>
+        <v>99.9</v>
+      </c>
       <c r="H43" s="4">
         <f>4048+944+241</f>
         <v>5233</v>
       </c>
+      <c r="I43" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="H44" s="4">
         <f>32383+6713+2823</f>
         <v>41919</v>
       </c>
+      <c r="I44" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B45" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4.4</v>
+      </c>
+      <c r="D45" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="E45" s="3">
+        <v>23.7</v>
+      </c>
+      <c r="F45" s="3">
+        <v>37.7</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
       <c r="H45" s="4">
         <f>2609+491+255</f>
         <v>3355</v>
       </c>
+      <c r="I45" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="B46" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>41.9</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="F46" s="3">
+        <v>44.9</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="3"/>
+        <v>100.1</v>
+      </c>
       <c r="H46" s="4">
         <f>300+80+34</f>
         <v>414</v>
       </c>
+      <c r="I46" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="B47" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="C47" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D47" s="3">
+        <v>24.6</v>
+      </c>
+      <c r="E47" s="3">
+        <v>22.9</v>
+      </c>
+      <c r="F47" s="3">
+        <v>32.3</v>
+      </c>
+      <c r="G47" s="4">
+        <f t="shared" si="3"/>
+        <v>99.9</v>
+      </c>
       <c r="H47" s="4">
         <f>1895+532+344</f>
         <v>2771</v>
       </c>
+      <c r="I47" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="B48" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="D48" s="3">
+        <v>22.1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>24.7</v>
+      </c>
+      <c r="F48" s="3">
+        <v>39.4</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" si="3"/>
+        <v>99.9</v>
+      </c>
       <c r="H48" s="4">
         <f>6837+1477+595</f>
         <v>8909</v>
       </c>
+      <c r="I48" s="5" t="str">
+        <f t="array" ref="I48">INDEX($B$1:$F$1,0,MATCH(MAX($B48:$F48),$C48:$F48,0))</f>
+        <v>Sad</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="B49" s="3">
+        <v>20.4</v>
+      </c>
+      <c r="C49" s="3">
+        <v>4.6</v>
+      </c>
+      <c r="D49" s="3">
+        <v>21.0999999999999</v>
+      </c>
+      <c r="E49" s="3">
+        <v>17.4</v>
+      </c>
+      <c r="F49" s="3">
+        <v>36.4</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="3"/>
+        <v>99.9</v>
+      </c>
       <c r="H49" s="4">
         <f>407+144+100</f>
         <v>651</v>
       </c>
+      <c r="I49" s="5" t="str">
+        <f t="shared" ref="I49:I51" si="4">INDEX($B$1:$F$1,0,MATCH(MAX($B49:$F49),$B49:$F49,0))</f>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="B50" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="C50" s="3">
+        <v>4.1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>24.4</v>
+      </c>
+      <c r="E50" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="F50" s="3">
+        <v>36.3</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="3"/>
+        <v>99.9</v>
+      </c>
       <c r="H50" s="4">
         <f>1931+495+298</f>
         <v>2724</v>
       </c>
+      <c r="I50" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Fear</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6">
+      <c r="A51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="C51" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="D51" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="E51" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="F51" s="7">
+        <v>33.8</v>
+      </c>
+      <c r="G51" s="4">
+        <f t="shared" si="3"/>
+        <v>99.8</v>
+      </c>
+      <c r="H51" s="8">
         <f>65+16+6</f>
         <v>87</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Fear</v>
       </c>
     </row>
     <row r="52">
@@ -1456,7 +2101,7 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="G52" s="9"/>
       <c r="H52" s="4">
         <f>SUM(H2:H51)</f>
         <v>398224</v>

--- a/Map/data/Sentiment-19_State_Data.xlsx
+++ b/Map/data/Sentiment-19_State_Data.xlsx
@@ -1,31 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\GitHub\COVID-Tweet-Sentiment\Map\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DD0851-D6B1-462C-BDBE-DC808B0AC8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A26">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">Daniel
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Daniel
 	-Daniel Lee</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A19">
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">Daniel
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Daniel
 	-Daniel Lee</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -33,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>State</t>
   </si>
@@ -210,28 +247,40 @@
   </si>
   <si>
     <t>Wyoming</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,68 +289,81 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="3">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -491,28 +553,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="7" max="7" width="9.0"/>
-    <col customWidth="1" min="8" max="8" width="18.88"/>
-    <col customWidth="1" min="9" max="9" width="15.38"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="18.90625" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -561,7 +626,7 @@
         <v>31.7</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G27" si="1">sum(B2:F2)</f>
+        <f t="shared" ref="G2:G27" si="0">SUM(B2:F2)</f>
         <v>99.9</v>
       </c>
       <c r="H2" s="4">
@@ -569,11 +634,11 @@
         <v>2572</v>
       </c>
       <c r="I2" s="5" t="str">
-        <f t="shared" ref="I2:I47" si="2">INDEX($B$1:$F$1,0,MATCH(MAX($B2:$F2),$B2:$F2,0))</f>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="3">
+        <f t="shared" ref="I2:I47" si="1">INDEX($B$1:$F$1,0,MATCH(MAX($B2:$F2),$B2:$F2,0))</f>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -584,7 +649,7 @@
         <v>3.5</v>
       </c>
       <c r="D3" s="3">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="E3" s="3">
         <v>15.5</v>
@@ -593,7 +658,7 @@
         <v>35.6</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H3" s="4">
@@ -601,11 +666,11 @@
         <v>1081</v>
       </c>
       <c r="I3" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="4">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -616,7 +681,7 @@
         <v>3.7</v>
       </c>
       <c r="D4" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3">
         <v>26.3</v>
@@ -625,7 +690,7 @@
         <v>36.6</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H4" s="4">
@@ -633,16 +698,16 @@
         <v>9855</v>
       </c>
       <c r="I4" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="5">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C5" s="3">
         <v>3.9</v>
@@ -657,19 +722,19 @@
         <v>44.1</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="1"/>
-        <v>99.8</v>
+        <f t="shared" si="0"/>
+        <v>99.800000000000011</v>
       </c>
       <c r="H5" s="4">
         <f>2780+625+106</f>
         <v>3511</v>
       </c>
       <c r="I5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="6">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -686,10 +751,10 @@
         <v>17.8</v>
       </c>
       <c r="F6" s="3">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H6" s="4">
@@ -697,11 +762,11 @@
         <v>75790</v>
       </c>
       <c r="I6" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Surprise</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -712,7 +777,7 @@
         <v>7.4</v>
       </c>
       <c r="D7" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3">
         <v>18.8</v>
@@ -721,7 +786,7 @@
         <v>49.2</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H7" s="4">
@@ -729,11 +794,11 @@
         <v>5870</v>
       </c>
       <c r="I7" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="8">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -741,19 +806,19 @@
         <v>11.2</v>
       </c>
       <c r="C8" s="3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D8" s="3">
         <v>21.4</v>
       </c>
       <c r="E8" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3">
         <v>42.2</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>99.9</v>
       </c>
       <c r="H8" s="4">
@@ -761,16 +826,16 @@
         <v>1772</v>
       </c>
       <c r="I8" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="9">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="C9" s="3">
         <v>7.9</v>
@@ -782,27 +847,27 @@
         <v>21.1</v>
       </c>
       <c r="F9" s="3">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="1"/>
-        <v>100.2</v>
+        <f t="shared" si="0"/>
+        <v>100.19999999999999</v>
       </c>
       <c r="H9" s="4">
         <f>309+96+325</f>
         <v>730</v>
       </c>
       <c r="I9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="10">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
         <v>2.7</v>
@@ -817,7 +882,7 @@
         <v>28.9</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H10" s="4">
@@ -825,11 +890,11 @@
         <v>1066</v>
       </c>
       <c r="I10" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Sad</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -837,31 +902,31 @@
         <v>26.8</v>
       </c>
       <c r="C11" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="3">
         <v>9.5</v>
       </c>
       <c r="E11" s="3">
-        <v>28.7999999999999</v>
+        <v>28.799999999999901</v>
       </c>
       <c r="F11" s="3">
         <v>31.2</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="1"/>
-        <v>99.3</v>
+        <f t="shared" si="0"/>
+        <v>99.299999999999898</v>
       </c>
       <c r="H11" s="4">
         <f>8308+1962+944</f>
         <v>11214</v>
       </c>
       <c r="I11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="12">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -869,31 +934,31 @@
         <v>10.6</v>
       </c>
       <c r="C12" s="3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D12" s="3">
         <v>24.7</v>
       </c>
       <c r="E12" s="3">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="F12" s="3">
         <v>33.9</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>99.8</v>
+        <f t="shared" si="0"/>
+        <v>99.800000000000011</v>
       </c>
       <c r="H12" s="4">
         <f>3456+1327+505</f>
         <v>5288</v>
       </c>
       <c r="I12" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="13">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -901,31 +966,31 @@
         <v>11.5</v>
       </c>
       <c r="C13" s="3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D13" s="3">
         <v>22.8</v>
       </c>
       <c r="E13" s="3">
-        <v>29.2999999999999</v>
+        <v>29.299999999999901</v>
       </c>
       <c r="F13" s="3">
         <v>32.1</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="1"/>
-        <v>99.8</v>
+        <f t="shared" si="0"/>
+        <v>99.799999999999898</v>
       </c>
       <c r="H13" s="4">
         <f>941+214+69</f>
         <v>1224</v>
       </c>
       <c r="I13" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="14">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -935,19 +1000,19 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="4">
         <f>11155+2168+1608</f>
         <v>14931</v>
       </c>
-      <c r="I14" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="I14" s="5" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -955,31 +1020,31 @@
         <v>10.5</v>
       </c>
       <c r="C15" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D15" s="3">
         <v>22.7</v>
       </c>
       <c r="E15" s="3">
-        <v>23.5999999999999</v>
+        <v>23.599999999999898</v>
       </c>
       <c r="F15" s="3">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>99.999999999999901</v>
       </c>
       <c r="H15" s="4">
         <f>5120+1148+267</f>
         <v>6535</v>
       </c>
       <c r="I15" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="16">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -989,19 +1054,19 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="4">
         <f>1265+269+107</f>
         <v>1641</v>
       </c>
-      <c r="I16" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="I16" s="5" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1012,33 +1077,33 @@
         <v>5.6</v>
       </c>
       <c r="D17" s="3">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="E17" s="3">
         <v>23.7</v>
       </c>
       <c r="F17" s="3">
-        <v>34.6999999999999</v>
+        <v>34.699999999999903</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>99.999999999999901</v>
       </c>
       <c r="H17" s="4">
         <f>892+144+48</f>
         <v>1084</v>
       </c>
       <c r="I17" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="18">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="3">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C18" s="3">
         <v>6.5</v>
@@ -1050,10 +1115,10 @@
         <v>22.7</v>
       </c>
       <c r="F18" s="3">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H18" s="4">
@@ -1061,11 +1126,11 @@
         <v>3331</v>
       </c>
       <c r="I18" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="19">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1073,7 +1138,7 @@
         <v>14.8</v>
       </c>
       <c r="C19" s="3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D19" s="3">
         <v>20.7</v>
@@ -1082,30 +1147,30 @@
         <v>22.5</v>
       </c>
       <c r="F19" s="3">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="1"/>
-        <v>99.9</v>
+        <f t="shared" si="0"/>
+        <v>99.899999999999991</v>
       </c>
       <c r="H19" s="4">
         <f>3332+736+171</f>
         <v>4239</v>
       </c>
       <c r="I19" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="20">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="3">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C20" s="3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D20" s="3">
         <v>15.3</v>
@@ -1117,7 +1182,7 @@
         <v>55.5</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H20" s="4">
@@ -1125,11 +1190,11 @@
         <v>853</v>
       </c>
       <c r="I20" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="21">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1137,19 +1202,19 @@
         <v>16.3</v>
       </c>
       <c r="C21" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
         <v>22.5</v>
       </c>
       <c r="E21" s="3">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F21" s="3">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H21" s="4">
@@ -1157,11 +1222,11 @@
         <v>6561</v>
       </c>
       <c r="I21" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="22">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1172,16 +1237,16 @@
         <v>1.6</v>
       </c>
       <c r="D22" s="3">
-        <v>7.39999999999999</v>
+        <v>7.3999999999999897</v>
       </c>
       <c r="E22" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100.1</v>
       </c>
       <c r="H22" s="4">
@@ -1189,11 +1254,11 @@
         <v>11706</v>
       </c>
       <c r="I22" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="23">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1210,10 +1275,10 @@
         <v>20.9</v>
       </c>
       <c r="F23" s="3">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H23" s="4">
@@ -1221,11 +1286,11 @@
         <v>5284</v>
       </c>
       <c r="I23" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="24">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1242,10 +1307,10 @@
         <v>28.7</v>
       </c>
       <c r="F24" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>99.6</v>
       </c>
       <c r="H24" s="4">
@@ -1253,11 +1318,11 @@
         <v>7045</v>
       </c>
       <c r="I24" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="25">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1274,26 +1339,26 @@
         <v>22.5</v>
       </c>
       <c r="F25" s="3">
-        <v>41.0999999999999</v>
+        <v>41.099999999999902</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>99.999999999999915</v>
       </c>
       <c r="H25" s="3">
-        <v>831.0</v>
+        <v>831</v>
       </c>
       <c r="I25" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="26">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="3">
-        <v>11.8999999999999</v>
+        <v>11.899999999999901</v>
       </c>
       <c r="C26" s="3">
         <v>4.3</v>
@@ -1305,22 +1370,22 @@
         <v>24.9</v>
       </c>
       <c r="F26" s="3">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="1"/>
-        <v>99.9</v>
+        <f t="shared" si="0"/>
+        <v>99.899999999999892</v>
       </c>
       <c r="H26" s="4">
         <f>3050+701+259</f>
         <v>4010</v>
       </c>
       <c r="I26" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="27">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -1340,18 +1405,18 @@
         <v>35.1</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="1"/>
-        <v>99.7</v>
+        <f t="shared" si="0"/>
+        <v>99.699999999999989</v>
       </c>
       <c r="H27" s="3">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="I27" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="28">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -1359,7 +1424,7 @@
         <v>14.2</v>
       </c>
       <c r="C28" s="3">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D28" s="3">
         <v>22.1</v>
@@ -1371,18 +1436,18 @@
         <v>37.1</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" ref="G28:G51" si="3"> sum(B28:F28)</f>
+        <f t="shared" ref="G28:G52" si="2">SUM(B28:F28)</f>
         <v>99.9</v>
       </c>
       <c r="H28" s="3">
-        <v>2147.0</v>
+        <v>2147</v>
       </c>
       <c r="I28" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="29">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1402,7 +1467,7 @@
         <v>40.5</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="H29" s="3">
@@ -1410,11 +1475,11 @@
         <v>9670</v>
       </c>
       <c r="I29" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="30">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1425,27 +1490,27 @@
         <v>5.9</v>
       </c>
       <c r="D30" s="3">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E30" s="3">
         <v>22.4</v>
       </c>
       <c r="F30" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
       <c r="H30" s="3">
-        <v>557.0</v>
+        <v>557</v>
       </c>
       <c r="I30" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="31">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1462,10 +1527,10 @@
         <v>25.2</v>
       </c>
       <c r="F31" s="3">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>99.8</v>
       </c>
       <c r="H31" s="4">
@@ -1473,11 +1538,11 @@
         <v>29913</v>
       </c>
       <c r="I31" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="32">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
@@ -1488,27 +1553,27 @@
         <v>7.2</v>
       </c>
       <c r="D32" s="3">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E32" s="3">
         <v>23.7</v>
       </c>
       <c r="F32" s="3">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>2090.0</v>
+        <v>2090</v>
       </c>
       <c r="I32" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="33">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
@@ -1516,10 +1581,10 @@
         <v>14.1</v>
       </c>
       <c r="C33" s="3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D33" s="3">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="E33" s="3">
         <v>26.1</v>
@@ -1528,7 +1593,7 @@
         <v>35.6</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="H33" s="4">
@@ -1536,11 +1601,11 @@
         <v>61174</v>
       </c>
       <c r="I33" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="34">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -1548,19 +1613,19 @@
         <v>11.3</v>
       </c>
       <c r="C34" s="3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D34" s="3">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E34" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="F34" s="3">
         <v>36.5</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
       <c r="H34" s="4">
@@ -1568,11 +1633,11 @@
         <v>5681</v>
       </c>
       <c r="I34" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="35">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
@@ -1592,18 +1657,18 @@
         <v>38.1</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="3"/>
-        <v>99.8</v>
+        <f t="shared" si="2"/>
+        <v>99.800000000000011</v>
       </c>
       <c r="H35" s="3">
-        <v>546.0</v>
+        <v>546</v>
       </c>
       <c r="I35" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="36">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
@@ -1611,7 +1676,7 @@
         <v>12.4</v>
       </c>
       <c r="C36" s="3">
-        <v>3.59999999999999</v>
+        <v>3.5999999999999899</v>
       </c>
       <c r="D36" s="3">
         <v>22.9</v>
@@ -1623,51 +1688,51 @@
         <v>40.1</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="3"/>
-        <v>99.8</v>
+        <f t="shared" si="2"/>
+        <v>99.799999999999983</v>
       </c>
       <c r="H36" s="4">
         <f>4347+954+290</f>
         <v>5591</v>
       </c>
       <c r="I36" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="37">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="3">
-        <v>11.8999999999999</v>
+        <v>11.899999999999901</v>
       </c>
       <c r="C37" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D37" s="3">
-        <v>21.0999999999999</v>
+        <v>21.099999999999898</v>
       </c>
       <c r="E37" s="3">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="F37" s="3">
         <v>31.5</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="3"/>
-        <v>99.7</v>
+        <f t="shared" si="2"/>
+        <v>99.699999999999804</v>
       </c>
       <c r="H37" s="4">
         <f>2150+398+114</f>
         <v>2662</v>
       </c>
       <c r="I37" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Sad</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
@@ -1677,19 +1742,19 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H38" s="4">
         <f>5345+1844+621</f>
         <v>7810</v>
       </c>
-      <c r="I38" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="I38" s="5" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -1697,31 +1762,31 @@
         <v>4.2</v>
       </c>
       <c r="C39" s="3">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D39" s="3">
-        <v>11.8999999999999</v>
+        <v>11.899999999999901</v>
       </c>
       <c r="E39" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="F39" s="3">
         <v>49.7</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="3"/>
-        <v>99.9</v>
+        <f t="shared" si="2"/>
+        <v>99.899999999999906</v>
       </c>
       <c r="H39" s="4">
         <f>9243+2258+789</f>
         <v>12290</v>
       </c>
       <c r="I39" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="40">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>47</v>
       </c>
@@ -1732,16 +1797,16 @@
         <v>6.3</v>
       </c>
       <c r="D40" s="3">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E40" s="3">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="F40" s="3">
         <v>40.4</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
       <c r="H40" s="4">
@@ -1749,11 +1814,11 @@
         <v>2491</v>
       </c>
       <c r="I40" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="41">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -1767,13 +1832,13 @@
         <v>27.8</v>
       </c>
       <c r="E41" s="3">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="F41" s="3">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
       <c r="H41" s="4">
@@ -1781,16 +1846,16 @@
         <v>805</v>
       </c>
       <c r="I41" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="42">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C42" s="3">
         <v>5.6</v>
@@ -1805,7 +1870,7 @@
         <v>36.1</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
       <c r="H42" s="4">
@@ -1813,11 +1878,11 @@
         <v>563</v>
       </c>
       <c r="I42" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="43">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>50</v>
       </c>
@@ -1825,7 +1890,7 @@
         <v>13.1</v>
       </c>
       <c r="C43" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D43" s="3">
         <v>22.2</v>
@@ -1837,7 +1902,7 @@
         <v>36.5</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
       <c r="H43" s="4">
@@ -1845,11 +1910,11 @@
         <v>5233</v>
       </c>
       <c r="I43" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="44">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>51</v>
       </c>
@@ -1859,19 +1924,19 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H44" s="4">
         <f>32383+6713+2823</f>
         <v>41919</v>
       </c>
-      <c r="I44" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="I44" s="5" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>52</v>
       </c>
@@ -1879,7 +1944,7 @@
         <v>13.4</v>
       </c>
       <c r="C45" s="3">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D45" s="3">
         <v>20.8</v>
@@ -1888,10 +1953,10 @@
         <v>23.7</v>
       </c>
       <c r="F45" s="3">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="H45" s="4">
@@ -1899,19 +1964,19 @@
         <v>3355</v>
       </c>
       <c r="I45" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="46">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C46" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D46" s="3">
         <v>41.9</v>
@@ -1923,7 +1988,7 @@
         <v>44.9</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100.1</v>
       </c>
       <c r="H46" s="4">
@@ -1931,11 +1996,11 @@
         <v>414</v>
       </c>
       <c r="I46" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="47">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>54</v>
       </c>
@@ -1952,22 +2017,22 @@
         <v>22.9</v>
       </c>
       <c r="F47" s="3">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="3"/>
-        <v>99.9</v>
+        <f t="shared" si="2"/>
+        <v>99.899999999999991</v>
       </c>
       <c r="H47" s="4">
         <f>1895+532+344</f>
         <v>2771</v>
       </c>
       <c r="I47" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="48">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>55</v>
       </c>
@@ -1987,7 +2052,7 @@
         <v>39.4</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
       <c r="H48" s="4">
@@ -1999,39 +2064,39 @@
         <v>Sad</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="3">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="C49" s="3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D49" s="3">
-        <v>21.0999999999999</v>
+        <v>21.099999999999898</v>
       </c>
       <c r="E49" s="3">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F49" s="3">
         <v>36.4</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="3"/>
-        <v>99.9</v>
+        <f t="shared" si="2"/>
+        <v>99.899999999999892</v>
       </c>
       <c r="H49" s="4">
         <f>407+144+100</f>
         <v>651</v>
       </c>
       <c r="I49" s="5" t="str">
-        <f t="shared" ref="I49:I51" si="4">INDEX($B$1:$F$1,0,MATCH(MAX($B49:$F49),$B49:$F49,0))</f>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="50">
+        <f t="shared" ref="I49:I52" si="3">INDEX($B$1:$F$1,0,MATCH(MAX($B49:$F49),$B49:$F49,0))</f>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>57</v>
       </c>
@@ -2039,7 +2104,7 @@
         <v>13.6</v>
       </c>
       <c r="C50" s="3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D50" s="3">
         <v>24.4</v>
@@ -2048,22 +2113,22 @@
         <v>21.5</v>
       </c>
       <c r="F50" s="3">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="G50" s="4">
-        <f t="shared" si="3"/>
-        <v>99.9</v>
+        <f t="shared" si="2"/>
+        <v>99.899999999999991</v>
       </c>
       <c r="H50" s="4">
         <f>1931+495+298</f>
         <v>2724</v>
       </c>
       <c r="I50" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="51">
+        <f t="shared" si="3"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>58</v>
       </c>
@@ -2080,10 +2145,10 @@
         <v>26.3</v>
       </c>
       <c r="F51" s="7">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>99.8</v>
       </c>
       <c r="H51" s="8">
@@ -2091,24 +2156,42 @@
         <v>87</v>
       </c>
       <c r="I51" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Fear</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="4">
-        <f>SUM(H2:H51)</f>
-        <v>398224</v>
+        <f t="shared" si="3"/>
+        <v>Fear</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="4">
+        <v>10</v>
+      </c>
+      <c r="C52" s="4">
+        <v>10</v>
+      </c>
+      <c r="D52" s="4">
+        <v>40</v>
+      </c>
+      <c r="E52" s="4">
+        <v>20</v>
+      </c>
+      <c r="F52" s="4">
+        <v>20</v>
+      </c>
+      <c r="G52" s="9">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>Surprise</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Map/data/Sentiment-19_State_Data.xlsx
+++ b/Map/data/Sentiment-19_State_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\GitHub\COVID-Tweet-Sentiment\Map\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DD0851-D6B1-462C-BDBE-DC808B0AC8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF50A0CB-0300-4EEA-B9D1-16204F416DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,7 +256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -274,13 +274,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -313,7 +306,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -322,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -340,11 +333,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,11 +561,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52:I52"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -994,22 +992,32 @@
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="B14" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>18.2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="F14" s="3">
+        <v>48.199999999999903</v>
+      </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.899999999999892</v>
       </c>
       <c r="H14" s="4">
         <f>11155+2168+1608</f>
         <v>14931</v>
       </c>
-      <c r="I14" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1048,22 +1056,32 @@
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="3">
+        <v>3.5999999999999899</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2.19999999999999</v>
+      </c>
+      <c r="D16" s="3">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="E16" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>46.5</v>
+      </c>
       <c r="G16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100.09999999999998</v>
       </c>
       <c r="H16" s="4">
         <f>1265+269+107</f>
         <v>1641</v>
       </c>
-      <c r="I16" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,7 +1340,7 @@
         <v>Fear</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1353,7 +1371,7 @@
         <v>Fear</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -1737,7 +1755,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1918,22 +1936,32 @@
       <c r="A44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="B44" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="D44" s="3">
+        <v>22.3</v>
+      </c>
+      <c r="E44" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="F44" s="3">
+        <v>33.5</v>
+      </c>
       <c r="G44" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="H44" s="4">
         <f>32383+6713+2823</f>
         <v>41919</v>
       </c>
-      <c r="I44" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="I44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
@@ -2161,37 +2189,48 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="10">
         <v>10</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="10">
         <v>10</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="10">
         <v>40</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="10">
         <v>20</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="10">
         <v>20</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="12">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="11" t="str">
+      <c r="I52" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Surprise</v>
       </c>
     </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="4">
+        <f>SUM(H2:H51)</f>
+        <v>398224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Map/data/Sentiment-19_State_Data.xlsx
+++ b/Map/data/Sentiment-19_State_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\GitHub\COVID-Tweet-Sentiment\Map\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF50A0CB-0300-4EEA-B9D1-16204F416DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16AE536-6808-4094-9CEB-82979E41A78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -333,14 +333,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -564,8 +563,8 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1754,22 +1753,32 @@
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="B38" s="3">
+        <v>17.3</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>23.8</v>
+      </c>
+      <c r="E38" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F38" s="3">
+        <v>39.299999999999997</v>
+      </c>
       <c r="G38" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="H38" s="4">
         <f>5345+1844+621</f>
         <v>7810</v>
       </c>
-      <c r="I38" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="I38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fear</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
@@ -2189,41 +2198,40 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="13">
         <v>10</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="13">
         <v>10</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="13">
         <v>40</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="13">
         <v>20</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="13">
         <v>20</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="10">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="I52" s="2" t="str">
+      <c r="I52" s="11" t="str">
         <f t="shared" si="3"/>
         <v>Surprise</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="11"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="4">
         <f>SUM(H2:H51)</f>
         <v>398224</v>

--- a/Map/data/Sentiment-19_State_Data.xlsx
+++ b/Map/data/Sentiment-19_State_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\GitHub\COVID-Tweet-Sentiment\Map\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16AE536-6808-4094-9CEB-82979E41A78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD8B444-167A-42FB-BD03-45A7BC4F288C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,7 +306,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -315,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -333,11 +333,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -564,7 +562,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -631,7 +629,7 @@
         <v>2572</v>
       </c>
       <c r="I2" s="5" t="str">
-        <f t="shared" ref="I2:I47" si="1">INDEX($B$1:$F$1,0,MATCH(MAX($B2:$F2),$B2:$F2,0))</f>
+        <f t="shared" ref="I2:I52" si="1">INDEX($B$1:$F$1,0,MATCH(MAX($B2:$F2),$B2:$F2,0))</f>
         <v>Fear</v>
       </c>
     </row>
@@ -2097,8 +2095,8 @@
         <v>8909</v>
       </c>
       <c r="I48" s="5" t="str">
-        <f t="array" ref="I48">INDEX($B$1:$F$1,0,MATCH(MAX($B48:$F48),$C48:$F48,0))</f>
-        <v>Sad</v>
+        <f t="shared" si="1"/>
+        <v>Fear</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
@@ -2129,7 +2127,7 @@
         <v>651</v>
       </c>
       <c r="I49" s="5" t="str">
-        <f t="shared" ref="I49:I52" si="3">INDEX($B$1:$F$1,0,MATCH(MAX($B49:$F49),$B49:$F49,0))</f>
+        <f t="shared" si="1"/>
         <v>Fear</v>
       </c>
     </row>
@@ -2161,7 +2159,7 @@
         <v>2724</v>
       </c>
       <c r="I50" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Fear</v>
       </c>
     </row>
@@ -2193,35 +2191,35 @@
         <v>87</v>
       </c>
       <c r="I51" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Fear</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="11">
         <v>10</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="11">
         <v>10</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="11">
         <v>40</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="11">
         <v>20</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="11">
         <v>20</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="4">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="I52" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="I52" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Surprise</v>
       </c>
     </row>
